--- a/resources/docs/V0.9.0.1/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/kafka配置参数详解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Broker" sheetId="1" r:id="rId1"/>
@@ -5216,10 +5216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -5275,14 +5275,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5296,17 +5297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5314,6 +5307,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5335,6 +5358,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5342,15 +5380,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5359,38 +5398,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5406,13 +5413,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5469,7 +5469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5481,7 +5481,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5493,43 +5535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5541,31 +5547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5583,7 +5565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5595,13 +5577,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5613,7 +5631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5626,30 +5650,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5735,11 +5735,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5761,6 +5776,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5774,7 +5798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5794,21 +5818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5823,15 +5832,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5840,10 +5840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5852,137 +5852,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6020,31 +6020,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6445,859 +6430,859 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="24" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="75.75" spans="1:3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="269.25" spans="1:3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="28">
         <v>1000000</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="28">
         <v>8</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="29.25" spans="1:3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="28">
         <v>500</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="45.75" spans="1:3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="30.75" spans="1:3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="30.75" spans="1:3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="28">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" ht="73.5" spans="1:3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" ht="45" spans="1:3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" ht="87" spans="1:3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="104.25" spans="1:3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="28">
         <v>-1</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="29.25" spans="1:3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="57.75" spans="1:3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="28">
         <v>1</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="44.25" spans="1:3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="28">
         <v>0.9</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" ht="39.75" customHeight="1" spans="1:3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="28">
         <v>15000</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="100.5" spans="1:3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="28">
         <v>0.5</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" ht="59.25" spans="1:3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="60" spans="1:3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" ht="30.75" spans="1:3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="28">
         <v>4096</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="29" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" ht="73.5" spans="1:3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="28">
         <v>60000</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" ht="45.75" spans="1:3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" ht="30" spans="1:3">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="28">
         <v>30000</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="28">
         <v>1</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" ht="45.75" spans="1:3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="28">
         <v>10000</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" ht="45" spans="1:3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="28">
         <v>4000</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" ht="30.75" spans="1:3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" ht="30" spans="1:3">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="28">
         <v>500</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="1:3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="28">
         <v>1</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="1:3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="28">
         <v>1</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="1:3">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="28">
         <v>5000</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="28">
         <v>1000</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="28">
         <v>1000</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="28">
         <v>6000</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="1:3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="28">
         <v>6000</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="29" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="1:3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="28">
         <v>2000</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" ht="45" spans="1:3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" ht="29.25" spans="1:3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="28">
         <v>3</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:3">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="28">
         <v>5000</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" ht="30.75" spans="1:3">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" ht="15.75" spans="1:3">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="28">
         <v>10</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="28">
         <v>300</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="28">
         <v>4096</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:3">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:3">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34" t="s">
+      <c r="B65" s="28"/>
+      <c r="C65" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="28">
         <v>600000</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="28">
         <v>0</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="28">
         <v>1</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="69" ht="30.75" spans="1:3">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="1:3">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" ht="44.25" spans="1:3">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="28">
         <v>50</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="29" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" ht="30" spans="1:3">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="28">
         <v>1440</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:3">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="28">
         <v>600000</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" ht="30" spans="1:3">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="28">
         <v>3</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="1:3">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="28">
         <v>104857600</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" ht="30" spans="1:3">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="28">
         <v>5242880</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" ht="30" spans="1:3">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="28">
         <v>-1</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="78" ht="57.75" spans="1:3">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="29" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7313,7 +7298,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7335,11 +7320,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="39.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7375,7 +7360,7 @@
       <c r="E2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7393,7 +7378,7 @@
       <c r="E3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" ht="41.25" spans="1:6">
       <c r="A4" s="6" t="s">
@@ -7409,447 +7394,447 @@
       <c r="E4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" ht="54.75" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" ht="127.5" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" ht="69" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="176.25" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" ht="72.75" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="243.75" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="41.25" spans="1:6">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <v>100</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="72" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" ht="82.5" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" ht="54.75" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" ht="54.75" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="10">
         <v>50</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" ht="41.25" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="27.75" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" ht="135.75" spans="1:6">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="19" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" ht="68.25" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" ht="68.25" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" ht="41.25" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7871,7 +7856,7 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7980,10 +7965,10 @@
       <c r="D6" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8000,10 +7985,10 @@
       <c r="D7" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="117" customHeight="1" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -8018,10 +8003,10 @@
       <c r="D8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="117" customHeight="1" spans="1:6">
       <c r="A9" s="10" t="s">
@@ -8036,10 +8021,10 @@
       <c r="D9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8050,16 +8035,16 @@
       <c r="B10" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8076,10 +8061,10 @@
       <c r="D11" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:6">
       <c r="A12" s="10" t="s">
@@ -8094,10 +8079,10 @@
       <c r="D12" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="72" customHeight="1" spans="1:6">
       <c r="A13" s="10" t="s">
@@ -8112,138 +8097,138 @@
       <c r="D13" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="72" customHeight="1" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:6">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="82" customHeight="1" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>50</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="42" customHeight="1" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" ht="42" customHeight="1" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" ht="64" customHeight="1" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" ht="64" customHeight="1" spans="1:6">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <v>100</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" ht="81.75" spans="1:6">
       <c r="A21" s="10" t="s">
@@ -8258,10 +8243,10 @@
       <c r="D21" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8278,82 +8263,82 @@
       <c r="D22" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" ht="27.75" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" ht="27.75" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" ht="81.75" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="68.25" spans="1:6">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/resources/docs/V0.9.0.1/kafka配置参数详解.xlsx
+++ b/resources/docs/V0.9.0.1/kafka配置参数详解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Broker" sheetId="1" r:id="rId1"/>
@@ -5216,10 +5216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -5281,6 +5281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -5312,31 +5335,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5368,46 +5408,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5469,6 +5469,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5493,25 +5517,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5559,12 +5607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5584,48 +5626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5760,50 +5760,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5832,6 +5788,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5840,10 +5840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5852,133 +5852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7298,7 +7298,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7314,8 +7314,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7524,7 +7524,7 @@
       <c r="E11" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="17" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       <c r="E12" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" ht="72" spans="1:6">
       <c r="A13" s="10" t="s">
@@ -7562,7 +7562,7 @@
       <c r="E13" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" ht="82.5" spans="1:6">
       <c r="A14" s="10" t="s">
@@ -7580,11 +7580,11 @@
       <c r="E14" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>150</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="E15" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" ht="54.75" spans="1:6">
       <c r="A16" s="10" t="s">
@@ -7616,7 +7616,7 @@
       <c r="E16" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" ht="54.75" spans="1:6">
       <c r="A17" s="10" t="s">
@@ -7634,7 +7634,7 @@
       <c r="E17" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" ht="41.25" spans="1:6">
       <c r="A18" s="10" t="s">
@@ -7652,7 +7652,7 @@
       <c r="E18" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" ht="27.75" spans="1:6">
       <c r="A19" s="10" t="s">
@@ -7670,7 +7670,7 @@
       <c r="E19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" ht="135.75" spans="1:6">
       <c r="A20" s="10" t="s">
@@ -7688,9 +7688,9 @@
       <c r="E20" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:6">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>244</v>
       </c>
